--- a/Results/ResultsHSA.xlsx
+++ b/Results/ResultsHSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ParticleChromo3D\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B76224-FB39-4B09-B23A-303FCEB412EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B95ADE4-9FCF-4215-8B32-E0684F964CCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2460" windowWidth="25215" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="2760" windowWidth="25215" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParticleChromo3d" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>Methods</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Coverage-90%</t>
-  </si>
-  <si>
-    <t>TM-score</t>
   </si>
 </sst>
 </file>
@@ -442,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5479092-7E64-416F-938B-C288A11E5553}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,9 +456,7 @@
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -497,7 +492,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,9 +510,7 @@
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -588,7 +581,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,9 +599,7 @@
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -659,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B67092-BF2A-444A-AAA1-404712A107D0}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,9 +669,7 @@
       <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/Results/ResultsHSA.xlsx
+++ b/Results/ResultsHSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ParticleChromo3D\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B95ADE4-9FCF-4215-8B32-E0684F964CCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4CEA08-DAAE-4D82-AF2C-323796FDCDBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="2760" windowWidth="25215" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="2760" windowWidth="25215" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParticleChromo3d" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Methods</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>ChromSDE</t>
-  </si>
-  <si>
-    <t>Pastis</t>
   </si>
   <si>
     <t>ShRec3D</t>
@@ -62,9 +59,6 @@
   </si>
   <si>
     <t>LorDG</t>
-  </si>
-  <si>
-    <t>3DFlies</t>
   </si>
   <si>
     <t>ParticleChromo3D</t>
@@ -89,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +105,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,13 +148,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{710A6E4D-8D33-44B4-90EF-5FD099CCB502}"/>
@@ -172,6 +174,941 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'coverage 90'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'coverage 90'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>HSA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ChromSDE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ShRec3D</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chromosome3D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3DMax</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LorDG</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ParticleChromo3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'coverage 90'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.98675500000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97767700000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94682200000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95825300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96086899999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98224599999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96072900000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6599-4F7D-8DBF-09C2FCC1E70F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="448862000"/>
+        <c:axId val="448868240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="448862000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448868240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448868240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448862000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9BFC04-7893-4D2C-B26D-8C279B589414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,137 +1376,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5479092-7E64-416F-938B-C288A11E5553}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="6">
+        <v>0.13454199999999999</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.108417</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="6">
+        <v>0.89837999999999996</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.90515900000000005</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="6">
+        <v>0.96072900000000006</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.95913999999999999</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="6">
+        <v>0.81656700000000004</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.81545400000000001</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="B3" s="6">
+        <v>0.27396100000000001</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.26559500000000003</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="B4" s="6">
+        <v>0.72034200000000004</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.74290199999999995</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="6">
+        <v>0.41883700000000001</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.46547100000000002</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="6">
+        <v>0.273173</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.27615899999999999</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="B7" s="6">
+        <v>0.37656699999999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.40636299999999997</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="B8" s="6">
+        <v>0.17168800000000001</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.14102400000000001</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -578,67 +1559,106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59D4B5F-557A-45DE-A5D8-10139111B3B8}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A4" sqref="A4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="6">
+        <v>0.95555999999999996</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.95236500000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>0.92456400000000005</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.92872500000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>0.91688899999999995</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.92420500000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>0.87190699999999999</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.87630300000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>0.90301500000000001</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.90910599999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="6">
+        <v>0.92478199999999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.92954899999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
+      <c r="B8">
+        <f>ParticleChromo3d!B3</f>
+        <v>0.89837999999999996</v>
+      </c>
+      <c r="C8">
+        <f>ParticleChromo3d!C3</f>
+        <v>0.90515900000000005</v>
       </c>
     </row>
   </sheetData>
@@ -650,93 +1670,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B67092-BF2A-444A-AAA1-404712A107D0}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2">
+        <v>0.98675500000000005</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.98408700000000005</v>
+      </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="6">
+        <v>0.97767700000000002</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.97600299999999995</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="6">
+        <v>0.94682200000000005</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.95377900000000004</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="6">
+        <v>0.95825300000000002</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.95821100000000003</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="6">
+        <v>0.96086899999999997</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.95930199999999999</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="6">
+        <v>0.98224599999999995</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.97936199999999995</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2">
+        <f>ParticleChromo3d!B4</f>
+        <v>0.96072900000000006</v>
+      </c>
+      <c r="C8" s="2">
+        <f>ParticleChromo3d!C4</f>
+        <v>0.95913999999999999</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:4" ht="15.75">
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -746,7 +1792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
